--- a/biology/Botanique/Sansevieria_aethiopica/Sansevieria_aethiopica.xlsx
+++ b/biology/Botanique/Sansevieria_aethiopica/Sansevieria_aethiopica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria aethiopica, également appelée Dracaena aethiopica[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria aethiopica, également appelée Dracaena aethiopica, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante succulente, Sansevieria aethiopica est une espèce de sansevières à moyennes (jusqu'à 35 cm) et fines (1-2 cm) feuilles de couleur vert à vert-clair, striées de zones plus claires avec des bords bruns à violacés, incurvées avec un sillon marqué. Elle pousse en bouquet d'une dizaines de feuilles par pied.
-Elle a été identifiée comme espèce à part entière en 1794 par le botaniste suédois Carl Peter Thunberg[2].
+Elle a été identifiée comme espèce à part entière en 1794 par le botaniste suédois Carl Peter Thunberg.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans l'ensemble de l'Afrique australe du nord du Zimbabwe, de la Namibie et du Mozambique au sud de l'Afrique du Sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans l'ensemble de l'Afrique australe du nord du Zimbabwe, de la Namibie et du Mozambique au sud de l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce porte différents noms synonymes attribués au cours d'identifications successives de la même espèce[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce porte différents noms synonymes attribués au cours d'identifications successives de la même espèce :
 Sansevieria caespitosa (Dinter, 1926)
 Sansevieria glauca (Haworth, 1812)
 Sansevieria scabrifolia (Dinter, 1932)
